--- a/mismatches.xlsx
+++ b/mismatches.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,6 +444,16 @@
           <t>_merge</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>File1_Column</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>File2_Column</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -456,6 +466,16 @@
           <t>left_only</t>
         </is>
       </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -466,6 +486,16 @@
       <c r="B3" t="inlineStr">
         <is>
           <t>right_only</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Id</t>
         </is>
       </c>
     </row>

--- a/mismatches.xlsx
+++ b/mismatches.xlsx
@@ -463,7 +463,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>left_only</t>
+          <t>right_only</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -485,7 +485,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>right_only</t>
+          <t>left_only</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
